--- a/data_FontysCampus/GridNodes_FontysCampus.xlsx
+++ b/data_FontysCampus/GridNodes_FontysCampus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\Fontys_Campus\data_FontysCampus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/487503_student_fontys_nl/Documents/School/Fontys/Semester 6/ZEnmO/Model/Oefenmodel ZEnmO/Fontys_Campus-main/Fontys_Campus-main/data_FontysCampus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA381B3-B5E3-46AF-8952-F447D83693EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{FDA381B3-B5E3-46AF-8952-F447D83693EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCEE7D13-68B5-47C9-B6F4-986ADEA34C34}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A7529885-FB18-401C-977B-A3275EF3AD02}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A7529885-FB18-401C-977B-A3275EF3AD02}"/>
   </bookViews>
   <sheets>
     <sheet name="gridnodes" sheetId="2" r:id="rId1"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>is_capacity_available</t>
   </si>
@@ -339,28 +339,31 @@
     <t>T1</t>
   </si>
   <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>subscope</t>
+  </si>
+  <si>
+    <t>service_area_polygon</t>
+  </si>
+  <si>
+    <t>capacity_kw</t>
+  </si>
+  <si>
+    <t>MVLV</t>
+  </si>
+  <si>
+    <t>Klantstation</t>
+  </si>
+  <si>
+    <t>gridnode_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>subscope</t>
-  </si>
-  <si>
-    <t>service_area_polygon</t>
-  </si>
-  <si>
-    <t>capacity_kw</t>
-  </si>
-  <si>
-    <t>MVLV</t>
-  </si>
-  <si>
-    <t>Klantstation</t>
-  </si>
-  <si>
-    <t>gridnode_id</t>
   </si>
 </sst>
 </file>
@@ -829,29 +832,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BCE184-E6B7-4248-9F1F-EFB645AF205B}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -878,16 +881,16 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -895,13 +898,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>51.451055349999997</v>
@@ -910,7 +913,7 @@
         <v>5.4804510300000002</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>0</v>
@@ -920,6 +923,11 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L2" xr:uid="{E7BCE184-E6B7-4248-9F1F-EFB645AF205B}">
